--- a/test/testcases/suite.xlsx
+++ b/test/testcases/suite.xlsx
@@ -63,6 +63,36 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -76,52 +106,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -131,16 +115,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -162,22 +146,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -191,9 +184,16 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -228,48 +228,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,13 +240,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,31 +342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,37 +378,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,43 +439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +464,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -509,154 +518,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
@@ -1098,14 +1098,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1261,11 +1261,7 @@
           <t>test,内置</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>自测内置关键字</t>
-        </is>
-      </c>
+      <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="inlineStr">
         <is>
           <t>内置</t>
@@ -1637,27 +1633,313 @@
       <c r="J16" s="5" t="n"/>
     </row>
     <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>HRobot关键字-当前时间戳</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>test,HRobot</t>
+        </is>
+      </c>
       <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>HRobot</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>当前时间戳</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>START_TIME</t>
+        </is>
+      </c>
       <c r="G17" s="5" t="n"/>
       <c r="H17" s="5" t="n"/>
       <c r="I17" s="5" t="n"/>
       <c r="J17" s="5" t="n"/>
     </row>
-    <row r="18" ht="26" customHeight="1"/>
-    <row r="19" ht="26" customHeight="1"/>
-    <row r="20" ht="26" customHeight="1"/>
-    <row r="21" ht="26" customHeight="1"/>
-    <row r="22" ht="26" customHeight="1"/>
-    <row r="23" ht="26" customHeight="1"/>
-    <row r="24" ht="26" customHeight="1"/>
-    <row r="25" ht="26" customHeight="1"/>
-    <row r="26" ht="26" customHeight="1"/>
-    <row r="27" ht="26" customHeight="1"/>
+    <row r="18" ht="26" customHeight="1">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>内置</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>打印日志</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>${START_TIME}</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="5" t="n"/>
+      <c r="I18" s="5" t="n"/>
+      <c r="J18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="26" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>HRobot关键字-设置全局变量</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>test,HRobot</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>HRobot</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>设置全局变量</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>我的全局变量</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>不忘初心</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="n"/>
+      <c r="I19" s="5" t="n"/>
+      <c r="J19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="26" customHeight="1">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>内置</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>打印日志</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>${我的全局变量}</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="5" t="n"/>
+      <c r="I20" s="5" t="n"/>
+      <c r="J20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="26" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>HRobot关键字-设置用例集变量</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>test,HRobot</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>HRobot</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>设置用例集变量</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>这是一个用例集的变量</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>服务至上</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="n"/>
+      <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="26" customHeight="1">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>内置</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>打印日志</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>${这是一个用例集的变量}</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="5" t="n"/>
+      <c r="I22" s="5" t="n"/>
+      <c r="J22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="26" customHeight="1">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>内置</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>打印日志</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>${我的全局变量}</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" s="5" t="n"/>
+      <c r="J23" s="5" t="n"/>
+    </row>
+    <row r="24" ht="26" customHeight="1">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>HRobot关键字-设置变量</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>test,HRobot</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>HRobot</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>设置变量</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>MY_VAR</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>捋起袖子加油干</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="n"/>
+      <c r="I24" s="5" t="n"/>
+      <c r="J24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="26" customHeight="1">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>内置</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>打印日志</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>${MY_VAR}</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="n"/>
+      <c r="H25" s="5" t="n"/>
+      <c r="I25" s="5" t="n"/>
+      <c r="J25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="26" customHeight="1">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>内置</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>打印日志</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>${这是一个用例集的变量}</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="n"/>
+      <c r="H26" s="5" t="n"/>
+      <c r="I26" s="5" t="n"/>
+      <c r="J26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="26" customHeight="1">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>内置</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>打印日志</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>${我的全局变量}</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="n"/>
+      <c r="H27" s="5" t="n"/>
+      <c r="I27" s="5" t="n"/>
+      <c r="J27" s="5" t="n"/>
+    </row>
     <row r="28" ht="26" customHeight="1"/>
     <row r="29" ht="26" customHeight="1"/>
     <row r="30" ht="26" customHeight="1"/>
@@ -2129,10 +2411,6 @@
     <row r="496" ht="26" customHeight="1"/>
     <row r="497" ht="26" customHeight="1"/>
     <row r="498" ht="26" customHeight="1"/>
-    <row r="499" ht="26" customHeight="1"/>
-    <row r="500" ht="26" customHeight="1"/>
-    <row r="501" ht="26" customHeight="1"/>
-    <row r="502" ht="26" customHeight="1"/>
   </sheetData>
   <dataValidations count="749">
     <dataValidation sqref="D2:D500" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -2886,7 +3164,7 @@
       <formula1>INDIRECT(D499)</formula1>
     </dataValidation>
     <dataValidation sqref="D2:D500" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"内置,HRobot,接口,远程"</formula1>
+      <formula1>"远程,接口,内置,HRobot"</formula1>
     </dataValidation>
     <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>INDIRECT(D2)</formula1>
@@ -5408,7 +5686,7 @@
       <formula1>INDIRECT(A499)</formula1>
     </dataValidation>
     <dataValidation sqref="A2:A500" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"内置,HRobot,接口,远程"</formula1>
+      <formula1>"远程,接口,内置,HRobot"</formula1>
     </dataValidation>
     <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>INDIRECT(A2)</formula1>
@@ -7774,7 +8052,7 @@
       <formula1>INDIRECT(A499)</formula1>
     </dataValidation>
     <dataValidation sqref="A2:A500" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"内置,HRobot,接口,远程"</formula1>
+      <formula1>"远程,接口,内置,HRobot"</formula1>
     </dataValidation>
     <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>INDIRECT(A2)</formula1>
@@ -9394,7 +9672,11 @@
           <t>${name}</t>
         </is>
       </c>
-      <c r="E4" s="5" t="n"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>@{args}</t>
+        </is>
+      </c>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="n"/>
     </row>
